--- a/datatemplates/allele-calls.xlsx
+++ b/datatemplates/allele-calls.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\Google Drive\CWR project_JHI + Crop Trust\Draft Templates\templates-with-example-data_BK+EM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\crop-trust\eggplant\data-templates\SP02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="1" r:id="rId1"/>
-    <sheet name="DATA" sheetId="2" r:id="rId2"/>
-    <sheet name="DATA_EXAMPLE" sheetId="3" r:id="rId3"/>
+    <sheet name="LOCATION" sheetId="4" r:id="rId2"/>
+    <sheet name="COLLABORATORS" sheetId="5" r:id="rId3"/>
+    <sheet name="DATA" sheetId="2" r:id="rId4"/>
+    <sheet name="DATA_EXAMPLE" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,23 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Dataset Name</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Experiment Name</t>
-  </si>
-  <si>
     <t>Lines/Markers</t>
   </si>
   <si>
@@ -52,10 +42,91 @@
     <t>Information</t>
   </si>
   <si>
-    <t>The "DATA" sheet should contain the allele calls in a matrix format where the columns are the marker names and the rows are lines/germplasm names (ACCENUMB of the MCPD).</t>
-  </si>
-  <si>
     <t>Help and Assistance</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Please include any additional information that details how this experiment was carried out in a text or Word document and send along with this template.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>CACTUAR-1</t>
+  </si>
+  <si>
+    <t>CACTUAR-2</t>
+  </si>
+  <si>
+    <t>CACTUAR-3</t>
+  </si>
+  <si>
+    <t>CACTUAR-4</t>
+  </si>
+  <si>
+    <t>CACTUAR-5</t>
+  </si>
+  <si>
+    <t>CACTUAR-6</t>
+  </si>
+  <si>
+    <t>CACTUAR-7</t>
+  </si>
+  <si>
+    <t>CACTUAR-8</t>
+  </si>
+  <si>
+    <t>Marker-1</t>
+  </si>
+  <si>
+    <t>Marker-2</t>
+  </si>
+  <si>
+    <t>Marker-3</t>
+  </si>
+  <si>
+    <t>Marker-4</t>
+  </si>
+  <si>
+    <t>Marker-5</t>
+  </si>
+  <si>
+    <t>Marker-6</t>
+  </si>
+  <si>
+    <t>Marker-7</t>
+  </si>
+  <si>
+    <t>Marker-8</t>
+  </si>
+  <si>
+    <t>Marker-9</t>
+  </si>
+  <si>
+    <t>Marker-10</t>
   </si>
   <si>
     <r>
@@ -69,145 +140,174 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>XXXXXX@croptrust.org</t>
+      <t>germinate@hutton.ac.uk</t>
     </r>
   </si>
   <si>
-    <t>Additional Information</t>
-  </si>
-  <si>
-    <t>Please include any additional information that details how this experiment was carried out in a text or Word document and send along with this template.</t>
-  </si>
-  <si>
-    <t>Missing data should be represented by an empty cell (not NA or a dash). See the "DATA EXAMPLE " sheet for an example. Please refer to https://ics.hutton.ac.uk/wiki/index.php/Flapjack_Help_-_Projects_and_Data_Formats for information on Flapjack input formats which we support in Germinate.</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>GC</t>
-  </si>
-  <si>
-    <t>CACTUAR-1</t>
-  </si>
-  <si>
-    <t>CACTUAR-2</t>
-  </si>
-  <si>
-    <t>CACTUAR-3</t>
-  </si>
-  <si>
-    <t>CACTUAR-4</t>
-  </si>
-  <si>
-    <t>CACTUAR-5</t>
-  </si>
-  <si>
-    <t>CACTUAR-6</t>
-  </si>
-  <si>
-    <t>CACTUAR-7</t>
-  </si>
-  <si>
-    <t>CACTUAR-8</t>
-  </si>
-  <si>
-    <t>Marker-1</t>
-  </si>
-  <si>
-    <t>Marker-2</t>
-  </si>
-  <si>
-    <t>Marker-3</t>
-  </si>
-  <si>
-    <t>Marker-4</t>
-  </si>
-  <si>
-    <t>Marker-5</t>
-  </si>
-  <si>
-    <t>Marker-6</t>
-  </si>
-  <si>
-    <t>Marker-7</t>
-  </si>
-  <si>
-    <t>Marker-8</t>
-  </si>
-  <si>
-    <t>Marker-9</t>
-  </si>
-  <si>
-    <t>Marker-10</t>
-  </si>
-  <si>
-    <t>GS number</t>
-  </si>
-  <si>
-    <r>
-      <t>Each cell should contain the allele calls, ideally in the form of two nucleotides (e.g. AA, TA, GC). If the nucleotides aren't known (e.g. only A/B or 0/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">data is available) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>then this should be provided.</t>
-    </r>
-  </si>
-  <si>
-    <t>End Date of Data Collection</t>
-  </si>
-  <si>
-    <t>Start Date of Data Collection</t>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>DEFINITION</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>A name given to the resource. Typically, a Title will be a name by which the resource is formally known.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>An account of the resource. Description may include but is not limited to: an abstract, a table of contents, a graphical representation, or a free-text account of the resource.</t>
+  </si>
+  <si>
+    <t>Rights</t>
+  </si>
+  <si>
+    <t>Information about rights held in and over the resource. Typically, rights information includes a statement about various property rights associated with the resource, including intellectual property rights.</t>
+  </si>
+  <si>
+    <t>Date of creation</t>
+  </si>
+  <si>
+    <t>A point or period of time associated with an event in the lifecycle of the resource. Date may be used to express temporal information at any level of granularity. Recommended best practice is to use an encoding scheme, such as the W3CDTF profile of ISO 8601 [W3CDTF].</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>An entity responsible for making the resource available. Examples of a Publisher include a person, an organization, or a service. Typically, the name of a Publisher should be used to indicate the entity.</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>The file format, physical medium, or dimensions of the resource. Examples of dimensions include size and duration. Recommended best practice is to use a controlled vocabulary such as the list of Internet Media Types [MIME].</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>A language of the resource. Recommended best practice is to use a controlled vocabulary such as RFC 4646 [RFC4646].</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>A related resource from which the described resource is derived. The described resource may be derived from the related resource in whole or in part. Recommended best practice is to identify the related resource by means of a string conforming to a formal identification system.</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>The nature or genre of the resource. Recommended best practice is to use a controlled vocabulary such as the DCMI Type Vocabulary [DCMITYPE]. To describe the file format, physical medium, or dimensions of the resource, use the Format element.</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>The topic of the resource. Typically, the subject will be represented using keywords, key phrases, or classification codes. Recommended best practice is to use a controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>The individual that can be contacted about this dataset.</t>
+  </si>
+  <si>
+    <t>The "DATA" sheet should contain the allele calls in a matrix format where the columns are the marker names and the rows are lines/germplasm names (ACCENUMB of the MCPD). Each cell should contain the allele calls, ideally in the form of two nucleotides (e.g. AA, TA, GC). If the nucleotides aren't known (e.g. only A/B or 0/1 data is available) then this should be provided. Missing data should be represented by an empty cell (not NA or a dash). See the "DATA EXAMPLE " sheet for an example. Please refer to https://ics.hutton.ac.uk/wiki/index.php/Flapjack_Help_-_Projects_and_Data_Formats for information on Flapjack input formats which we support in Germinate.</t>
+  </si>
+  <si>
+    <t>Map Name</t>
+  </si>
+  <si>
+    <t>Genetic or Physical</t>
+  </si>
+  <si>
+    <t>The name of the map that will be created based on the marker information.</t>
+  </si>
+  <si>
+    <t>The marker technology that has been used, e.g. SNP.</t>
+  </si>
+  <si>
+    <t>Is the map genetic or physical?</t>
+  </si>
+  <si>
+    <t>The map units, e.g. cM or BP.</t>
+  </si>
+  <si>
+    <t>Map Units</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Linkage Group / Chromosome</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Short name</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Elevation</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Last name (surname) of the author(s), researcher(s), scientist(s), student(s) responsible for producing the information product.</t>
+  </si>
+  <si>
+    <t>First name (and middle name if available) of the author(s), researcher(s), scientist(s), student(s) responsible for producing the information product.</t>
+  </si>
+  <si>
+    <t>E-mail address of the author(s), researcher(s), scientist(s), student(s) responsible for producing the information product.</t>
+  </si>
+  <si>
+    <t>Phone number of the author(s), researcher(s), scientist(s), student(s) responsible for producing the information product.</t>
+  </si>
+  <si>
+    <t>Author's affiliation when the resource was created.</t>
+  </si>
+  <si>
+    <t>Address of institution of affiliation when the resource was created.</t>
+  </si>
+  <si>
+    <t>The 2 letter country code of the institution (ISO 3166-1 alpha-2).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,30 +332,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -285,17 +388,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -303,18 +410,168 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{37DE6626-7AEA-474F-A6DF-21A5375857BA}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -339,9 +596,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -356,19 +613,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{899D81BA-0D15-4B0E-8198-E4AD18E04F51}" name="Table7" displayName="Table7" ref="A1:C16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:C16" xr:uid="{C82FB4AE-F346-4BB9-8666-4FFBF429A944}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3F717630-B083-4BCD-9DDB-D3C1A46061E9}" name="LABEL" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{4459234A-B162-442C-A2B8-269CC581C79D}" name="DEFINITION" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{FD356382-869F-4EB0-A6F1-D92F30176135}" name="VALUE" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C1BD76FD-8FFC-4004-830B-693EDDAB3AE1}" name="Table9" displayName="Table9" ref="A1:F2" totalsRowShown="0">
+  <autoFilter ref="A1:F2" xr:uid="{2BA9E1B0-E145-4FA2-84BC-627CE2AE7398}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0783EAC0-2447-4984-B2E9-96D48BEFC007}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{061B01E1-E5A7-499F-8EA6-44E042FEF1CD}" name="Short name"/>
+    <tableColumn id="3" xr3:uid="{DBEDBD58-3C9C-48D3-B45A-A7E45A480921}" name="Country"/>
+    <tableColumn id="4" xr3:uid="{E81C6EF3-7D26-4125-8F2A-A37B849FD128}" name="Elevation"/>
+    <tableColumn id="5" xr3:uid="{134F5095-51CC-4504-856F-5BB261FE757D}" name="Latitude"/>
+    <tableColumn id="6" xr3:uid="{2F6E45BF-A397-4FA2-BF03-8AF776C53ADF}" name="Longitude"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B17E13DC-A1BE-4337-94A3-20CE5E46A4FF}" name="Table8" displayName="Table8" ref="A1:G3" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G3" xr:uid="{2EA4EB1B-CF05-4161-8A4F-6C18B2873691}"/>
+  <tableColumns count="7">
+    <tableColumn id="2" xr3:uid="{54E2AD32-A903-4B29-B50E-E1D57C66A08F}" name="Last Name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2E4EEAB3-8C03-4513-BE97-157058BA75AA}" name="First Name" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{EB58BCE2-1172-40DD-9445-19879EBED028}" name="Email" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4E4F5E9A-70D3-45CA-977D-7BF61F7532EB}" name="Phone" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{EBFA69FE-7ABC-4DBF-BE40-87A581A669D7}" name="Contributor" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{551649BF-DFB9-4A79-9AB6-C84CF5A872B4}" name="Address" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D291AC4F-D5AA-4E81-BCDB-9DC062C684E4}" name="Country" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C42421F5-3092-42FC-9D5E-D1D4D8B147C9}" name="Table5" displayName="Table5" ref="A3:A4" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A3:A4" xr:uid="{388CDF32-3416-4F58-BD1E-AF0ACF62F192}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{2A4EC3C5-80D3-40BA-BB1A-F78FFE0D4110}" name="Lines/Markers"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:K11" totalsRowShown="0">
   <tableColumns count="11">
-    <tableColumn id="1" name="Lines/Markers"/>
-    <tableColumn id="2" name="Marker-1"/>
-    <tableColumn id="3" name="Marker-2"/>
-    <tableColumn id="4" name="Marker-3"/>
-    <tableColumn id="5" name="Marker-4"/>
-    <tableColumn id="6" name="Marker-5"/>
-    <tableColumn id="7" name="Marker-6"/>
-    <tableColumn id="8" name="Marker-7"/>
-    <tableColumn id="9" name="Marker-8"/>
-    <tableColumn id="10" name="Marker-9"/>
-    <tableColumn id="11" name="Marker-10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Lines/Markers"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Marker-1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Marker-2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Marker-3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Marker-4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Marker-5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Marker-6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Marker-7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Marker-8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Marker-9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Marker-10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -636,433 +946,760 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD4C650-208D-4BA9-BDC7-3CEA3A5BADFC}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ISO 3166-1 alpha-2" prompt="https://en.wikipedia.org/wiki/ISO_3166-1_alpha-2_x000a_" sqref="C1" xr:uid="{65AFC8FE-984A-436F-938B-5FCABFF18699}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD428ACF-6755-4DFE-905C-713C69538445}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lines/Markers" prompt="Lines running across rows and markers running down columns." sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lines/Markers" prompt="Lines running across rows and markers running down columns." sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
+      <c r="K1">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>12341</v>
+      </c>
+      <c r="D2">
+        <v>34324</v>
+      </c>
+      <c r="E2">
+        <v>42322</v>
+      </c>
+      <c r="F2">
+        <v>1324</v>
+      </c>
+      <c r="G2">
+        <v>2414</v>
+      </c>
+      <c r="H2">
+        <v>2344</v>
+      </c>
+      <c r="I2">
+        <v>1233</v>
+      </c>
+      <c r="J2">
+        <v>1231</v>
+      </c>
+      <c r="K2">
+        <v>4245</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/datatemplates/allele-calls.xlsx
+++ b/datatemplates/allele-calls.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\crop-trust\eggplant\data-templates\SP02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate3-bootstrap\datatemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datatemplates/allele-calls.xlsx
+++ b/datatemplates/allele-calls.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate3-bootstrap\datatemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F220E40-EF8F-4B81-BA17-C096EB93E9C6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="1" r:id="rId1"/>
@@ -393,7 +394,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -439,9 +440,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -640,8 +638,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B17E13DC-A1BE-4337-94A3-20CE5E46A4FF}" name="Table8" displayName="Table8" ref="A1:G3" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G3" xr:uid="{2EA4EB1B-CF05-4161-8A4F-6C18B2873691}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B17E13DC-A1BE-4337-94A3-20CE5E46A4FF}" name="Table8" displayName="Table8" ref="A1:G2" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G2" xr:uid="{2EA4EB1B-CF05-4161-8A4F-6C18B2873691}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{54E2AD32-A903-4B29-B50E-E1D57C66A08F}" name="Last Name" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{2E4EEAB3-8C03-4513-BE97-157058BA75AA}" name="First Name" dataDxfId="5"/>
@@ -949,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD428ACF-6755-4DFE-905C-713C69538445}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,15 +1270,6 @@
       <c r="G2" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datatemplates/allele-calls.xlsx
+++ b/datatemplates/allele-calls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate3-bootstrap\datatemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate\datatemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F220E40-EF8F-4B81-BA17-C096EB93E9C6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB6B508-4BE1-4934-AA03-B91068F30799}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="1" r:id="rId1"/>
@@ -947,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1210,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD428ACF-6755-4DFE-905C-713C69538445}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/datatemplates/allele-calls.xlsx
+++ b/datatemplates/allele-calls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate\datatemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB6B508-4BE1-4934-AA03-B91068F30799}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7FAD23-D7DC-4560-A917-59CF01D7D266}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="1" r:id="rId1"/>
@@ -389,12 +389,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -442,13 +443,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{37DE6626-7AEA-474F-A6DF-21A5375857BA}"/>
+    <cellStyle name="Warning Text" xfId="3" builtinId="11"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -595,8 +615,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -611,12 +631,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{899D81BA-0D15-4B0E-8198-E4AD18E04F51}" name="Table7" displayName="Table7" ref="A1:C16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{899D81BA-0D15-4B0E-8198-E4AD18E04F51}" name="Table7" displayName="Table7" ref="A1:C16" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:C16" xr:uid="{C82FB4AE-F346-4BB9-8666-4FFBF429A944}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3F717630-B083-4BCD-9DDB-D3C1A46061E9}" name="LABEL" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{4459234A-B162-442C-A2B8-269CC581C79D}" name="DEFINITION" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{FD356382-869F-4EB0-A6F1-D92F30176135}" name="VALUE" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{3F717630-B083-4BCD-9DDB-D3C1A46061E9}" name="LABEL" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{4459234A-B162-442C-A2B8-269CC581C79D}" name="DEFINITION" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{FD356382-869F-4EB0-A6F1-D92F30176135}" name="VALUE" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -638,23 +658,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B17E13DC-A1BE-4337-94A3-20CE5E46A4FF}" name="Table8" displayName="Table8" ref="A1:G2" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B17E13DC-A1BE-4337-94A3-20CE5E46A4FF}" name="Table8" displayName="Table8" ref="A1:G2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:G2" xr:uid="{2EA4EB1B-CF05-4161-8A4F-6C18B2873691}"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{54E2AD32-A903-4B29-B50E-E1D57C66A08F}" name="Last Name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{2E4EEAB3-8C03-4513-BE97-157058BA75AA}" name="First Name" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{EB58BCE2-1172-40DD-9445-19879EBED028}" name="Email" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{4E4F5E9A-70D3-45CA-977D-7BF61F7532EB}" name="Phone" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{EBFA69FE-7ABC-4DBF-BE40-87A581A669D7}" name="Contributor" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{551649BF-DFB9-4A79-9AB6-C84CF5A872B4}" name="Address" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{D291AC4F-D5AA-4E81-BCDB-9DC062C684E4}" name="Country" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{54E2AD32-A903-4B29-B50E-E1D57C66A08F}" name="Last Name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2E4EEAB3-8C03-4513-BE97-157058BA75AA}" name="First Name" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{EB58BCE2-1172-40DD-9445-19879EBED028}" name="Email" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{4E4F5E9A-70D3-45CA-977D-7BF61F7532EB}" name="Phone" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{EBFA69FE-7ABC-4DBF-BE40-87A581A669D7}" name="Contributor" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{551649BF-DFB9-4A79-9AB6-C84CF5A872B4}" name="Address" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{D291AC4F-D5AA-4E81-BCDB-9DC062C684E4}" name="Country" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C42421F5-3092-42FC-9D5E-D1D4D8B147C9}" name="Table5" displayName="Table5" ref="A3:A4" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C42421F5-3092-42FC-9D5E-D1D4D8B147C9}" name="Table5" displayName="Table5" ref="A3:A4" insertRow="1" totalsRowShown="0" headerRowCellStyle="Warning Text">
   <autoFilter ref="A3:A4" xr:uid="{388CDF32-3416-4F58-BD1E-AF0ACF62F192}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{2A4EC3C5-80D3-40BA-BB1A-F78FFE0D4110}" name="Lines/Markers"/>
@@ -947,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +990,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -979,7 +999,7 @@
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1157,6 +1177,11 @@
       <c r="C24" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(C2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1283,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,11 +1328,16 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lines/Markers" prompt="Lines running across rows and markers running down columns." sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
